--- a/inst/doc/0_WorkFlow.xlsx
+++ b/inst/doc/0_WorkFlow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\COMMON\STATISTICS\DPAU\DATA\_Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DPAU\DATA\_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="file" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_XmlVersion" hidden="1">"'1'"</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file!$A$1:$P$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file!$A$1:$P$245</definedName>
     <definedName name="Answer">tools!$A$2:$A$4</definedName>
     <definedName name="fgh">#REF!</definedName>
     <definedName name="Initial_DPAU">tools!$C$2:$C$5</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="773">
   <si>
     <t>Status</t>
   </si>
@@ -2223,9 +2223,6 @@
   </si>
   <si>
     <t>Labour Force Survey, Labour force participation rate, Q1.2014-Q+++</t>
-  </si>
-  <si>
-    <t>Summary table of labour market indicators estimated based on the Quarterly Labour Force Survey, Q.1/14-Q+++</t>
   </si>
   <si>
     <t>1_CPI_NCYR_COI_RT.csv</t>
@@ -2754,41 +2751,41 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X253"/>
+  <dimension ref="A1:X252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M255" sqref="M255"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="40.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="6" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" customWidth="1"/>
-    <col min="20" max="20" width="29.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -2839,7 +2836,7 @@
       </c>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2877,7 +2874,7 @@
       <c r="P2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2915,7 +2912,7 @@
       <c r="P3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -2953,7 +2950,7 @@
       <c r="P4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -2991,7 +2988,7 @@
       <c r="P5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -3029,7 +3026,7 @@
       <c r="P6"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -3067,7 +3064,7 @@
       <c r="P7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -3105,7 +3102,7 @@
       <c r="P8"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -3140,7 +3137,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -3175,7 +3172,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -3420,7 +3417,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -3560,7 +3557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -3665,7 +3662,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>1</v>
       </c>
@@ -3700,7 +3697,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>1</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
         <v>1</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <v>1</v>
       </c>
@@ -3884,7 +3881,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <v>1</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <v>1</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <v>1</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <v>1</v>
       </c>
@@ -4024,7 +4021,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <v>1</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <v>1</v>
       </c>
@@ -4094,7 +4091,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="b">
         <v>1</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="b">
         <v>1</v>
       </c>
@@ -4164,7 +4161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <v>1</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <v>1</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
         <v>1</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="b">
         <v>1</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="b">
         <v>1</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="b">
         <v>1</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="b">
         <v>1</v>
       </c>
@@ -4409,7 +4406,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="b">
         <v>1</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="b">
         <v>1</v>
       </c>
@@ -4479,7 +4476,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="b">
         <v>1</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -4584,7 +4581,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -4667,7 +4664,7 @@
       <c r="W52"/>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="b">
         <v>1</v>
       </c>
@@ -4715,7 +4712,7 @@
       <c r="W53"/>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="b">
         <v>1</v>
       </c>
@@ -4750,7 +4747,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="b">
         <v>1</v>
       </c>
@@ -4798,7 +4795,7 @@
       <c r="W55"/>
       <c r="X55"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <v>1</v>
       </c>
@@ -4833,7 +4830,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="b">
         <v>1</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="b">
         <v>1</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="b">
         <v>1</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="b">
         <v>1</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="b">
         <v>1</v>
       </c>
@@ -5008,7 +5005,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="b">
         <v>1</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="b">
         <v>1</v>
       </c>
@@ -5078,7 +5075,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="b">
         <v>1</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="b">
         <v>1</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="b">
         <v>1</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="b">
         <v>1</v>
       </c>
@@ -5218,7 +5215,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="b">
         <v>1</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="b">
         <v>1</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="b">
         <v>1</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="b">
         <v>1</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="b">
         <v>1</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="b">
         <v>1</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="b">
         <v>1</v>
       </c>
@@ -5463,7 +5460,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="b">
         <v>1</v>
       </c>
@@ -5498,7 +5495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="b">
         <v>1</v>
       </c>
@@ -5533,7 +5530,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="b">
         <v>1</v>
       </c>
@@ -5568,7 +5565,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="b">
         <v>1</v>
       </c>
@@ -5603,7 +5600,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="b">
         <v>1</v>
       </c>
@@ -5638,7 +5635,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="b">
         <v>1</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="b">
         <v>1</v>
       </c>
@@ -5708,7 +5705,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="b">
         <v>1</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="b">
         <v>1</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="b">
         <v>1</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="b">
         <v>1</v>
       </c>
@@ -5848,7 +5845,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="b">
         <v>1</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="b">
         <v>1</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="b">
         <v>1</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="b">
         <v>1</v>
       </c>
@@ -5988,7 +5985,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="b">
         <v>1</v>
       </c>
@@ -6023,7 +6020,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="b">
         <v>1</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="b">
         <v>1</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="b">
         <v>1</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="b">
         <v>1</v>
       </c>
@@ -6163,7 +6160,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="b">
         <v>1</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="b">
         <v>1</v>
       </c>
@@ -6233,7 +6230,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="b">
         <v>1</v>
       </c>
@@ -6268,7 +6265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="b">
         <v>1</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="b">
         <v>1</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="b">
         <v>1</v>
       </c>
@@ -6373,7 +6370,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="b">
         <v>1</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="b">
         <v>1</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="b">
         <v>1</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="b">
         <v>1</v>
       </c>
@@ -6513,7 +6510,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="b">
         <v>1</v>
       </c>
@@ -6548,7 +6545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="b">
         <v>1</v>
       </c>
@@ -6583,7 +6580,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="b">
         <v>1</v>
       </c>
@@ -6618,7 +6615,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="b">
         <v>1</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="b">
         <v>1</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="b">
         <v>1</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="b">
         <v>1</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="b">
         <v>1</v>
       </c>
@@ -6793,7 +6790,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="b">
         <v>1</v>
       </c>
@@ -6828,7 +6825,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="b">
         <v>1</v>
       </c>
@@ -6863,7 +6860,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="b">
         <v>1</v>
       </c>
@@ -6898,7 +6895,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="b">
         <v>1</v>
       </c>
@@ -6933,7 +6930,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="b">
         <v>1</v>
       </c>
@@ -6968,7 +6965,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="b">
         <v>1</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="b">
         <v>1</v>
       </c>
@@ -7041,7 +7038,7 @@
       <c r="P119" s="12"/>
       <c r="V119" s="13"/>
     </row>
-    <row r="120" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="b">
         <v>1</v>
       </c>
@@ -7079,7 +7076,7 @@
       <c r="P120" s="12"/>
       <c r="V120" s="13"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="b">
         <v>1</v>
       </c>
@@ -7119,7 +7116,7 @@
       <c r="V121" s="7"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="b">
         <v>1</v>
       </c>
@@ -7159,7 +7156,7 @@
       <c r="V122" s="7"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="b">
         <v>1</v>
       </c>
@@ -7199,7 +7196,7 @@
       <c r="V123" s="7"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="b">
         <v>1</v>
       </c>
@@ -7210,7 +7207,7 @@
         <v>553</v>
       </c>
       <c r="D124" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E124" t="s">
         <v>226</v>
@@ -7239,7 +7236,7 @@
       <c r="V124" s="7"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="b">
         <v>1</v>
       </c>
@@ -7250,7 +7247,7 @@
         <v>553</v>
       </c>
       <c r="D125" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E125" t="s">
         <v>226</v>
@@ -7279,7 +7276,7 @@
       <c r="V125" s="7"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="b">
         <v>1</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>553</v>
       </c>
       <c r="D126" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E126" t="s">
         <v>226</v>
@@ -7317,7 +7314,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="b">
         <v>1</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>553</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E127" t="s">
         <v>226</v>
@@ -7355,7 +7352,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="b">
         <v>1</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="b">
         <v>1</v>
       </c>
@@ -7431,7 +7428,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="b">
         <v>1</v>
       </c>
@@ -7469,7 +7466,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="b">
         <v>1</v>
       </c>
@@ -7507,7 +7504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="b">
         <v>1</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="b">
         <v>1</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="b">
         <v>1</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="b">
         <v>1</v>
       </c>
@@ -7659,7 +7656,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="b">
         <v>1</v>
       </c>
@@ -7697,7 +7694,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="b">
         <v>1</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="b">
         <v>1</v>
       </c>
@@ -7773,7 +7770,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="b">
         <v>1</v>
       </c>
@@ -7811,7 +7808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="b">
         <v>1</v>
       </c>
@@ -7849,7 +7846,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="b">
         <v>1</v>
       </c>
@@ -7887,7 +7884,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="b">
         <v>1</v>
       </c>
@@ -7925,7 +7922,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="b">
         <v>1</v>
       </c>
@@ -7963,7 +7960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="b">
         <v>1</v>
       </c>
@@ -8001,7 +7998,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="b">
         <v>1</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="b">
         <v>1</v>
       </c>
@@ -8077,7 +8074,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="b">
         <v>1</v>
       </c>
@@ -8115,7 +8112,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="b">
         <v>1</v>
       </c>
@@ -8153,7 +8150,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="b">
         <v>1</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="b">
         <v>1</v>
       </c>
@@ -8229,7 +8226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="b">
         <v>1</v>
       </c>
@@ -8267,7 +8264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="b">
         <v>1</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="b">
         <v>1</v>
       </c>
@@ -8343,7 +8340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="b">
         <v>1</v>
       </c>
@@ -8381,7 +8378,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="b">
         <v>1</v>
       </c>
@@ -8419,7 +8416,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="b">
         <v>1</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="b">
         <v>1</v>
       </c>
@@ -8495,7 +8492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="b">
         <v>1</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="b">
         <v>1</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="b">
         <v>1</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="b">
         <v>1</v>
       </c>
@@ -8647,7 +8644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="b">
         <v>1</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="b">
         <v>1</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="b">
         <v>1</v>
       </c>
@@ -8761,7 +8758,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="b">
         <v>1</v>
       </c>
@@ -8799,7 +8796,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="b">
         <v>1</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="b">
         <v>1</v>
       </c>
@@ -8863,7 +8860,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="b">
         <v>1</v>
       </c>
@@ -8895,7 +8892,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="b">
         <v>1</v>
       </c>
@@ -8927,7 +8924,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="b">
         <v>1</v>
       </c>
@@ -8959,7 +8956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="b">
         <v>1</v>
       </c>
@@ -8991,7 +8988,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="b">
         <v>1</v>
       </c>
@@ -9023,7 +9020,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="b">
         <v>1</v>
       </c>
@@ -9056,7 +9053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="b">
         <v>1</v>
       </c>
@@ -9084,7 +9081,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="b">
         <v>1</v>
       </c>
@@ -9112,7 +9109,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="b">
         <v>1</v>
       </c>
@@ -9144,10 +9141,10 @@
         <v>41640</v>
       </c>
       <c r="M176" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" t="b">
         <v>1</v>
       </c>
@@ -9178,7 +9175,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" t="b">
         <v>1</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" t="b">
         <v>1</v>
       </c>
@@ -9248,7 +9245,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="b">
         <v>1</v>
       </c>
@@ -9283,7 +9280,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="b">
         <v>1</v>
       </c>
@@ -9321,7 +9318,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="b">
         <v>1</v>
       </c>
@@ -9359,7 +9356,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="b">
         <v>1</v>
       </c>
@@ -9397,7 +9394,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" t="b">
         <v>1</v>
       </c>
@@ -9435,7 +9432,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" t="b">
         <v>1</v>
       </c>
@@ -9473,7 +9470,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="b">
         <v>1</v>
       </c>
@@ -9523,7 +9520,7 @@
       <c r="W186" s="10"/>
       <c r="X186" s="10"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="b">
         <v>1</v>
       </c>
@@ -9573,7 +9570,7 @@
       <c r="W187" s="10"/>
       <c r="X187" s="10"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>214</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>214</v>
       </c>
@@ -9631,7 +9628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>214</v>
       </c>
@@ -9660,7 +9657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>214</v>
       </c>
@@ -9689,7 +9686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>214</v>
       </c>
@@ -9718,7 +9715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>214</v>
       </c>
@@ -9747,7 +9744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>214</v>
       </c>
@@ -9776,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>214</v>
       </c>
@@ -9805,7 +9802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>214</v>
       </c>
@@ -9834,7 +9831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="b">
         <v>1</v>
       </c>
@@ -9869,7 +9866,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="b">
         <v>1</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="b">
         <v>1</v>
       </c>
@@ -9939,7 +9936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="b">
         <v>1</v>
       </c>
@@ -9974,7 +9971,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="b">
         <v>1</v>
       </c>
@@ -10009,7 +10006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="b">
         <v>1</v>
       </c>
@@ -10044,7 +10041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="b">
         <v>1</v>
       </c>
@@ -10079,7 +10076,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="b">
         <v>1</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" t="b">
         <v>1</v>
       </c>
@@ -10149,7 +10146,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" t="b">
         <v>1</v>
       </c>
@@ -10184,7 +10181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" t="b">
         <v>1</v>
       </c>
@@ -10219,7 +10216,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" t="b">
         <v>1</v>
       </c>
@@ -10254,7 +10251,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" t="b">
         <v>1</v>
       </c>
@@ -10289,7 +10286,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="b">
         <v>1</v>
       </c>
@@ -10324,7 +10321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" t="b">
         <v>1</v>
       </c>
@@ -10359,7 +10356,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" t="b">
         <v>1</v>
       </c>
@@ -10394,7 +10391,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" t="b">
         <v>1</v>
       </c>
@@ -10429,7 +10426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" t="b">
         <v>1</v>
       </c>
@@ -10464,7 +10461,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="b">
         <v>1</v>
       </c>
@@ -10499,7 +10496,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" t="b">
         <v>1</v>
       </c>
@@ -10534,7 +10531,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" t="b">
         <v>1</v>
       </c>
@@ -10569,7 +10566,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" t="b">
         <v>1</v>
       </c>
@@ -10601,7 +10598,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" t="b">
         <v>1</v>
       </c>
@@ -10633,7 +10630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" t="b">
         <v>1</v>
       </c>
@@ -10665,7 +10662,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" t="b">
         <v>1</v>
       </c>
@@ -10697,7 +10694,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" t="b">
         <v>1</v>
       </c>
@@ -10729,7 +10726,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" t="b">
         <v>1</v>
       </c>
@@ -10761,7 +10758,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" t="b">
         <v>1</v>
       </c>
@@ -10793,7 +10790,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" t="b">
         <v>1</v>
       </c>
@@ -10825,7 +10822,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" t="b">
         <v>1</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" t="b">
         <v>1</v>
       </c>
@@ -10889,7 +10886,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" t="b">
         <v>1</v>
       </c>
@@ -10921,7 +10918,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" t="b">
         <v>1</v>
       </c>
@@ -10953,7 +10950,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" t="b">
         <v>1</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" t="b">
         <v>1</v>
       </c>
@@ -11017,7 +11014,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" t="b">
         <v>1</v>
       </c>
@@ -11049,7 +11046,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" t="b">
         <v>1</v>
       </c>
@@ -11081,7 +11078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" t="b">
         <v>1</v>
       </c>
@@ -11113,7 +11110,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" t="b">
         <v>1</v>
       </c>
@@ -11124,7 +11121,7 @@
         <v>249</v>
       </c>
       <c r="D235" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E235" t="s">
         <v>595</v>
@@ -11153,7 +11150,7 @@
       <c r="P235"/>
       <c r="V235"/>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" t="b">
         <v>1</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>249</v>
       </c>
       <c r="D236" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E236" t="s">
         <v>595</v>
@@ -11193,7 +11190,7 @@
       <c r="P236"/>
       <c r="V236"/>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" t="b">
         <v>1</v>
       </c>
@@ -11204,7 +11201,7 @@
         <v>249</v>
       </c>
       <c r="D237" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E237" t="s">
         <v>595</v>
@@ -11233,7 +11230,7 @@
       <c r="P237"/>
       <c r="V237"/>
     </row>
-    <row r="238" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" t="b">
         <v>1</v>
       </c>
@@ -11268,7 +11265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" t="b">
         <v>1</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" t="b">
         <v>1</v>
       </c>
@@ -11338,7 +11335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" t="b">
         <v>1</v>
       </c>
@@ -11373,21 +11370,42 @@
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H242" s="15" t="s">
-        <v>729</v>
+    <row r="242" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" t="b">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>145</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>739</v>
       </c>
       <c r="J242" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="K242" t="s">
         <v>229</v>
       </c>
       <c r="L242" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" t="b">
         <v>1</v>
       </c>
@@ -11395,13 +11413,13 @@
         <v>145</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D243" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>20</v>
@@ -11410,7 +11428,7 @@
         <v>68</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="J243" t="s">
         <v>138</v>
@@ -11419,10 +11437,10 @@
         <v>229</v>
       </c>
       <c r="L243" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" t="b">
         <v>1</v>
       </c>
@@ -11430,13 +11448,13 @@
         <v>145</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>741</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>20</v>
@@ -11454,10 +11472,10 @@
         <v>229</v>
       </c>
       <c r="L244" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" t="b">
         <v>1</v>
       </c>
@@ -11465,13 +11483,13 @@
         <v>145</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>742</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>20</v>
@@ -11489,45 +11507,42 @@
         <v>229</v>
       </c>
       <c r="L245" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A246" t="b">
-        <v>1</v>
-      </c>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>145</v>
       </c>
-      <c r="C246" s="15" t="s">
-        <v>747</v>
+      <c r="C246" t="s">
+        <v>748</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>68</v>
+        <v>755</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="J246" t="s">
         <v>138</v>
       </c>
-      <c r="K246" t="s">
+      <c r="K246" s="6" t="s">
         <v>229</v>
       </c>
       <c r="L246" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>145</v>
       </c>
@@ -11535,7 +11550,7 @@
         <v>749</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>754</v>
@@ -11544,7 +11559,7 @@
         <v>20</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H247" s="6" t="s">
         <v>757</v>
@@ -11556,27 +11571,27 @@
         <v>229</v>
       </c>
       <c r="L247" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>145</v>
       </c>
       <c r="C248" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>751</v>
       </c>
       <c r="E248" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="H248" s="6" t="s">
         <v>758</v>
@@ -11585,59 +11600,56 @@
         <v>138</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="L248" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>145</v>
       </c>
       <c r="C249" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="E249" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G249" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="F249" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="H249" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="J249" t="s">
         <v>138</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="L249" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>145</v>
       </c>
       <c r="C250" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>760</v>
       </c>
       <c r="E250" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G250" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="H250" s="6" t="s">
         <v>762</v>
@@ -11649,27 +11661,27 @@
         <v>229</v>
       </c>
       <c r="L250" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
-        <v>145</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B251" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C251" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="J251" t="s">
         <v>138</v>
@@ -11677,66 +11689,37 @@
       <c r="K251" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L251" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B252" s="10" t="s">
-        <v>152</v>
+      <c r="L251" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>145</v>
       </c>
       <c r="C252" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="J252" t="s">
         <v>138</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>145</v>
-      </c>
-      <c r="C253" t="s">
-        <v>770</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="J253" t="s">
-        <v>138</v>
-      </c>
-      <c r="K253" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L253" t="s">
-        <v>748</v>
+      <c r="L252" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -11745,7 +11728,7 @@
     <sortCondition ref="C2:C183"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I235:I237 K2:K46 K65:K242 K247:K253">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I235:I237 K2:K46 K65:K241 K246:K252">
       <formula1>Status</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K47:K55">
@@ -11771,16 +11754,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11797,7 +11780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11814,7 +11797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11831,7 +11814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11848,7 +11831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -11865,7 +11848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -11879,7 +11862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11893,7 +11876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -11904,7 +11887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>33</v>
       </c>
@@ -11915,7 +11898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>35</v>
       </c>
@@ -11926,7 +11909,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>37</v>
       </c>
@@ -11937,7 +11920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>39</v>
       </c>
@@ -11948,7 +11931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>41</v>
       </c>
@@ -11959,7 +11942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>43</v>
       </c>
@@ -11970,7 +11953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>45</v>
       </c>
@@ -11981,7 +11964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>47</v>
       </c>
@@ -11992,7 +11975,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>49</v>
       </c>
@@ -12003,7 +11986,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>20</v>
       </c>
@@ -12014,7 +11997,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -12025,7 +12008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>53</v>
       </c>
@@ -12036,7 +12019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>55</v>
       </c>
@@ -12047,7 +12030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>57</v>
       </c>
@@ -12058,7 +12041,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>8</v>
       </c>
@@ -12069,7 +12052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>60</v>
       </c>
@@ -12080,7 +12063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>62</v>
       </c>
@@ -12091,7 +12074,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>64</v>
       </c>
@@ -12102,7 +12085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>66</v>
       </c>
@@ -12113,7 +12096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>141</v>
       </c>
@@ -12124,7 +12107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>68</v>
       </c>
@@ -12135,7 +12118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>70</v>
       </c>
@@ -12146,7 +12129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>72</v>
       </c>
@@ -12157,7 +12140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>74</v>
       </c>
@@ -12168,7 +12151,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>76</v>
       </c>
@@ -12179,7 +12162,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>78</v>
       </c>
@@ -12190,7 +12173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>80</v>
       </c>
@@ -12201,7 +12184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>82</v>
       </c>
@@ -12212,7 +12195,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>84</v>
       </c>
@@ -12223,7 +12206,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>86</v>
       </c>
@@ -12234,7 +12217,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>88</v>
       </c>
@@ -12245,7 +12228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>90</v>
       </c>
@@ -12256,7 +12239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>92</v>
       </c>
@@ -12267,7 +12250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>17</v>
       </c>
@@ -12278,7 +12261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>139</v>
       </c>
